--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITSENSE KO\source\repos\AASD_LAB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85079177-6897-48D0-A6A2-FE21167E0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7055F-79C8-449B-957E-556552236D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="240" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,15 +63,6 @@
     <t>0.0070119900</t>
   </si>
   <si>
-    <t>0.0000001271</t>
-  </si>
-  <si>
-    <t>0.0000001388</t>
-  </si>
-  <si>
-    <t>0.0000000801</t>
-  </si>
-  <si>
     <t>0.0000042636</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>0.0000056357</t>
+  </si>
+  <si>
+    <t>0.0000001969</t>
+  </si>
+  <si>
+    <t>0.0000003106</t>
+  </si>
+  <si>
+    <t>0.0000012012</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="B3:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,10 +597,10 @@
         <v>1000</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -608,10 +608,10 @@
         <v>10000</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -619,10 +619,10 @@
         <v>100000</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -641,10 +641,10 @@
         <v>1000</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>10000</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -663,10 +663,10 @@
         <v>100000</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -685,10 +685,10 @@
         <v>1000</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -696,10 +696,10 @@
         <v>10000</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -707,10 +707,10 @@
         <v>100000</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
